--- a/오류분석/Labeling_오류.xlsx
+++ b/오류분석/Labeling_오류.xlsx
@@ -1,26 +1,1619 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8DFDA-81E5-4B87-80E7-88B7FA597B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="대분류 및 세분류" sheetId="2" r:id="rId1"/>
+    <sheet name="Labeling_오류" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MATAGI</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{53AFD77F-0DDE-4B79-858B-CC608EDEBB30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오류로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보여지는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단어</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{41703662-1A5B-464F-B57C-EB5F182C1E73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>국립국어원</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>말뭉치에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분류한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개체명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분류입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="248">
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도가 아닌 '경제'와 관련된 경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언스리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여아'는 여자아이를 뜻 하지만
+'여야'로 잘 못 보고 태깅한 것으로 추측됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○는 사람이름이 아니기에 태깅 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물의 구조를 뜻 하기에 태깅 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12mm 두께의 패널을 가로 세로 1m 이하의 크기로 잘라 벽면에 붙였는데, 이런 공법은 철근콘크리트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 건물에 주로 쓰인다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 예산안 처리는 가시밭길?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이게 그까 만약에 또 다른 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 만약에 납치를 해가지고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">지난 3월부터 시작된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 바닥론 논쟁에서 보듯이 확산된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 회복 기대감도 빼놓을 수 없다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">자기 수요일날 다섯 시 아니 두 시에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 잡혀 있어서 대타를 못 해 줄 것 같다고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대가리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두 예.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문맥을 파악하기 힘들지만 동물의 신체 부분인
+AM_PART가 더 맞는 것으로 생각됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히비스커스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 술어가 ~먹었지 이기에 CV_FOOD가 더 옮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난' 또한 식물의 '난'을 뜻 할 것이라 생각됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문화재 보호와 관련된 법안을 별도로 분리해서 지금보다 더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>세분화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해서 정립시킬 필요가 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세분화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람의 인원 수와 관련된 '세 분'이 아닌
+대분류, 세분류의 '세분화'를 뜻 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">자길 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 줬다 이거야.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량과 전혀 관련없는 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">맛있는 거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리는 게</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기와 관려된 '사드'가 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페르시안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이런 것도 다 유전병 있잖아.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페르시안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페르시안'은 고양이 품종을 뜻 하는 것으로 보임
+AM(Animal)_type 으로 태깅하는 것이 맞는 것으로 생각됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행성/항성을 뜻 하는 단어가 아닌
+년/일/월과 관련된 '달'로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">앞으로 저희 풀문의 이~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당산'은 '당산제'라는 제사를 뜻 하는 것으로 보임
+따라서 지명(Location)과는 관련없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어 그치그치 자 본인들도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 싫어하고.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV 개체명의 세분류에는 '지기'에 태깅될 수 있는 세분류가 없음
+CV (Civilization) - 19개
+	- name: 문명/문화 명칭
+	- tribe: 민족/종족 명칭, 국가를 구성하는 국민
+	- sports: 스포츠/레포츠/레져 명칭
+	- sports_inst: 스포츠 용품/도구
+	- policy: 제도/정책 명칭
+	- tax: 조세 명칭
+	- funds: 연금, 기금, 자금, 펀드 명칭
+	- language: 언어 명칭
+	- building type: 건축양식 명칭
+	- food: 음식 명칭, 음식재료
+	- drink: 음료수, 술 명칭
+	- clothing: 의복/섬유 명칭
+	- position: 직위/직책 명칭, 스포츠 포지션
+	- relation: 인간 관계 명칭
+	- occupation: 직업 명칭
+	- currency: 통화 명칭
+	- prize: 상과 훈장
+	- law: 법/법률 명칭
+	- food style: 음식 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">저희가 그 소비자 보호원 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>천구백팔십칠년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 소비자보호 기본법에 의해서 만들어진 기관입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구백팔십칠년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구백팔십칠년'은 Date와 관련된 개체명인 DT로 분류되어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>총신이 긴 소총을 들고 있는 군인의 모습을 원통형으로 말면 그 총구가 자신의 뒤통수를 
+겨누게 되는 '뿌린 대로 거두리라(What goes around comes around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·2009년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 공익광고부문 금상)', 
+음주운전 사고로 부서진 차의 부품들로 만든 '휠체어(2008년 올해의 대상)', 
+교통사고로 왼다리를 잃은 사람이 철로 옆에 횡단금지 표지판을 들고 서 있는 
+'인간 교통표지판(2014년 올해의 대상)' 등이 그런 작품들이었다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도를 나타내는 '2009년'에 DT(Date) 개체명으로 분류되어 있지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">국제에너지기구 27개 회원국이 스마트 그리드 기술 및 정책 개발 등을 발표할 예정이며 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포스코ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 삼화콘덴서, 이글루시큐리티 등이 주목 대상이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OG(기관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD
+(학문/이론 분야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코ICT는 기업체 이름이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">현재 서울 지하철 1~9호선, 분당선 등 299개 역 승강장 스크린 도어 4840칸에 시가 걸려 있는데, 
+되레 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와 시민을 멀어지게 하고 있다는 비판이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시'는 서울시를 뜻 함
+따라서 'LC(Location)'으로 분류 되어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이 짧고 강력한 브랜드 속엔 ‘교육출판’ 외길을 걸어온 
+두산동아의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육철학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경영철학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 녹아있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육철학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영철학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육 철학'은 FD(Study Field)로 분류되었지만,
+'경영 철학'은 분류되지 않았따</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">맨유는 2015~16 시즌 자국 리그에서 5위에 그쳐 올 시즌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챔피언스리그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 나서지 못하고 
+위상이 한 단계 낮은 유로파리그를 치르고 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PS (Person) - 1개</t>
+  </si>
+  <si>
+    <t>2. LC (Location) -13 개</t>
+  </si>
+  <si>
+    <t>3. OG (Organization) - 14 개</t>
+  </si>
+  <si>
+    <t>4. AF (Artifacts) - 13개</t>
+  </si>
+  <si>
+    <t>지리서, 지도</t>
+  </si>
+  <si>
+    <t>의학 관련 서적</t>
+  </si>
+  <si>
+    <t>종교 서적, 각 종교의 경전</t>
+  </si>
+  <si>
+    <t>철학 관련 서적</t>
+  </si>
+  <si>
+    <t>시/소설/희곡 등의 문학 작품명</t>
+  </si>
+  <si>
+    <t>역사 서적</t>
+  </si>
+  <si>
+    <t>기타 서적</t>
+  </si>
+  <si>
+    <t>연극/공연명/가극</t>
+  </si>
+  <si>
+    <t>TV 프로그램 이름</t>
+  </si>
+  <si>
+    <t>5. DT (Date) - 8개</t>
+  </si>
+  <si>
+    <t>6. TI (Time) - 5개</t>
+  </si>
+  <si>
+    <t>7. CV (Civilization) - 19개</t>
+  </si>
+  <si>
+    <t>8. AM (Animal) - 9개</t>
+  </si>
+  <si>
+    <t>9. PT (Plant) - 7개</t>
+  </si>
+  <si>
+    <t>10. QT (Quantity) - 18개</t>
+  </si>
+  <si>
+    <t>11. FD (Study Field) - 6개</t>
+  </si>
+  <si>
+    <t>정치/경제/사회와 관련된 분야</t>
+  </si>
+  <si>
+    <t>12. TR (Theory) - 6개</t>
+  </si>
+  <si>
+    <t>13. EV (Event) - 5개</t>
+  </si>
+  <si>
+    <t>- others: 기타 사건/사고 명칭, ~사태</t>
+  </si>
+  <si>
+    <t>14. MT (Material) - 4개</t>
+  </si>
+  <si>
+    <t>15. TM (Term) - 16개</t>
+  </si>
+  <si>
+    <t>- cell tissue: 세포/조직/기관 명칭 (외부에서 안 보이는 조직/기관)</t>
+  </si>
+  <si>
+    <t>- sports: 스포츠/레저 용어 (기술/규칙 명칭)</t>
+  </si>
+  <si>
+    <t>- 사람 이름</t>
+  </si>
+  <si>
+    <t>- others: 기타장소</t>
+  </si>
+  <si>
+    <t>- province: 도, 주, 지역명</t>
+  </si>
+  <si>
+    <t>- county: 세부 행정구역명</t>
+  </si>
+  <si>
+    <t>- city: 도시명</t>
+  </si>
+  <si>
+    <t>- capitalcity: 수도명</t>
+  </si>
+  <si>
+    <t>- river: 강, 호수, 연못</t>
+  </si>
+  <si>
+    <t>- ocean: 해양, 바다</t>
+  </si>
+  <si>
+    <t>- bay: 반도, 만</t>
+  </si>
+  <si>
+    <t>- mountain: 산, 산맥, 능선, 고개</t>
+  </si>
+  <si>
+    <t>- island: 섬, 제도</t>
+  </si>
+  <si>
+    <t>- continent: 대륙</t>
+  </si>
+  <si>
+    <t>- tour: 관광명소</t>
+  </si>
+  <si>
+    <t>- space: 천체 명칭</t>
+  </si>
+  <si>
+    <t>- others: 기타 기관/단체</t>
+  </si>
+  <si>
+    <t>- economy: 경제 관련 기관/단체</t>
+  </si>
+  <si>
+    <t>- military: 군사 기관/단체, 국방 기관</t>
+  </si>
+  <si>
+    <t>- media: 미디어 기관/단체, 방송 관련 기관/기업</t>
+  </si>
+  <si>
+    <t>- sports: 스포츠 기관/단체</t>
+  </si>
+  <si>
+    <t>- art: 예술 기관/단체</t>
+  </si>
+  <si>
+    <t>- medicine: 의학/의료 기관/단체</t>
+  </si>
+  <si>
+    <t>- religion: 종교 기관/단체, 종파</t>
+  </si>
+  <si>
+    <t>- sicience: 과학 기관/단체</t>
+  </si>
+  <si>
+    <t>- library: 도서관 및 도서관 관련 기관/단체</t>
+  </si>
+  <si>
+    <t>- law: 법률 기관/단체</t>
+  </si>
+  <si>
+    <t>- politiccs: 정부/행정 기관, 공공 기관</t>
+  </si>
+  <si>
+    <t>- food: 음식 관련 업체/회사</t>
+  </si>
+  <si>
+    <t>- hotel: 숙박 관련 업체</t>
+  </si>
+  <si>
+    <t>- cultural_asset: 건물/서적/작품 등 문화재</t>
+  </si>
+  <si>
+    <t>- building: 건축물/토목건설물, 운동장이름, 아파트, 다리, 등대, 분수</t>
+  </si>
+  <si>
+    <t>- musical_instrument: 악기 명칭</t>
+  </si>
+  <si>
+    <t>- road: 도로/철로 명칭</t>
+  </si>
+  <si>
+    <t>- weapon: 무기 명칭</t>
+  </si>
+  <si>
+    <t>- transport: 교통수단/자동차/선박 모델 및 유형, 운송 수단, 놀이기구</t>
+  </si>
+  <si>
+    <t>- works: AFW의 세부 작품며에 해당하지 않는 기타 작품명</t>
+  </si>
+  <si>
+    <t>- document: 도서/서적 작품명</t>
+  </si>
+  <si>
+    <t>- performance: 춤/무용 작품명 및 춤 종류</t>
+  </si>
+  <si>
+    <t>- video: 영화 작품명</t>
+  </si>
+  <si>
+    <t>- art_craft: 미술 작품명(그림/미술품)</t>
+  </si>
+  <si>
+    <t>- music: 음악 작품명</t>
+  </si>
+  <si>
+    <t>- wares: 상품/제품 이름</t>
+  </si>
+  <si>
+    <t>- others: DT 계열의</t>
+  </si>
+  <si>
+    <t>- duration: 기간</t>
+  </si>
+  <si>
+    <t>- day: 날짜/절기</t>
+  </si>
+  <si>
+    <t>- month: 달</t>
+  </si>
+  <si>
+    <t>- year: 년</t>
+  </si>
+  <si>
+    <t>- season: 계절</t>
+  </si>
+  <si>
+    <t>- geoage: 지질시대</t>
+  </si>
+  <si>
+    <t>- dynasty: 왕조시대</t>
+  </si>
+  <si>
+    <t>- others: 기타 시간</t>
+  </si>
+  <si>
+    <t>- hour: 시각</t>
+  </si>
+  <si>
+    <t>- minute: 분</t>
+  </si>
+  <si>
+    <t>- second: 초</t>
+  </si>
+  <si>
+    <t>- name: 문명/문화 명칭</t>
+  </si>
+  <si>
+    <t>- tribe: 민족/종족 명칭, 국가를 구성하는 국민</t>
+  </si>
+  <si>
+    <t>- sports: 스포츠/레포츠/레져 명칭</t>
+  </si>
+  <si>
+    <t>- sports_inst: 스포츠 용품/도구</t>
+  </si>
+  <si>
+    <t>- policy: 제도/정책 명칭</t>
+  </si>
+  <si>
+    <t>- tax: 조세 명칭</t>
+  </si>
+  <si>
+    <t>- funds: 연금, 기금, 자금, 펀드 명칭</t>
+  </si>
+  <si>
+    <t>- language: 언어 명칭</t>
+  </si>
+  <si>
+    <t>- building type: 건축양식 명칭</t>
+  </si>
+  <si>
+    <t>- food: 음식 명칭, 음식재료</t>
+  </si>
+  <si>
+    <t>- drink: 음료수, 술 명칭</t>
+  </si>
+  <si>
+    <t>- clothing: 의복/섬유 명칭</t>
+  </si>
+  <si>
+    <t>- position: 직위/직책 명칭, 스포츠 포지션</t>
+  </si>
+  <si>
+    <t>- relation: 인간 관계 명칭</t>
+  </si>
+  <si>
+    <t>- occupation: 직업 명칭</t>
+  </si>
+  <si>
+    <t>- currency: 통화 명칭</t>
+  </si>
+  <si>
+    <t>- prize: 상과 훈장</t>
+  </si>
+  <si>
+    <t>- law: 법/법률 명칭</t>
+  </si>
+  <si>
+    <t>- food style: 음식 종류</t>
+  </si>
+  <si>
+    <t>- others: 기타 동물 명칭</t>
+  </si>
+  <si>
+    <t>- insect: 곤충</t>
+  </si>
+  <si>
+    <t>- bird: 조류</t>
+  </si>
+  <si>
+    <t>- fish: 어류</t>
+  </si>
+  <si>
+    <t>- mammalia: 포유류</t>
+  </si>
+  <si>
+    <t>- amphibia: 양서류</t>
+  </si>
+  <si>
+    <t>- reptilia: 파충류</t>
+  </si>
+  <si>
+    <t>- type: 동물 분류 명칭</t>
+  </si>
+  <si>
+    <t>- part: 동물 몸의 한 부분(신체 부위) 명칭</t>
+  </si>
+  <si>
+    <t>- others: 기타 식물 명칭</t>
+  </si>
+  <si>
+    <t>- fruit: 과일 이름</t>
+  </si>
+  <si>
+    <t>- flower: 꽃 이름</t>
+  </si>
+  <si>
+    <t>- tree: 나무 이름</t>
+  </si>
+  <si>
+    <t>- GRASS: 풀 이름</t>
+  </si>
+  <si>
+    <t>- type: 식물 유형 명칭</t>
+  </si>
+  <si>
+    <t>- part: 식물의 한 부분에 대한 명칭</t>
+  </si>
+  <si>
+    <t>- others: 기타 수량 표현</t>
+  </si>
+  <si>
+    <t>- age: 나이</t>
+  </si>
+  <si>
+    <t>- size: 크기/넓이</t>
+  </si>
+  <si>
+    <t>- length: 길이/거리/높이</t>
+  </si>
+  <si>
+    <t>- count: 개수/빈도</t>
+  </si>
+  <si>
+    <t>- man count: 인원수</t>
+  </si>
+  <si>
+    <t>- weight: 무게</t>
+  </si>
+  <si>
+    <t>- percentage: 백분율, 비율, 농도</t>
+  </si>
+  <si>
+    <t>- speed: 속도</t>
+  </si>
+  <si>
+    <t>- temperature: 온도</t>
+  </si>
+  <si>
+    <t>- volume: 부피</t>
+  </si>
+  <si>
+    <t>- order: 순서, 순차적 표현</t>
+  </si>
+  <si>
+    <t>- price: 금액</t>
+  </si>
+  <si>
+    <t>- phone: 전화번호</t>
+  </si>
+  <si>
+    <t>- sports: 스포츠 관련 수량 표현</t>
+  </si>
+  <si>
+    <t>- channel: TV/라디오 채널 번호</t>
+  </si>
+  <si>
+    <t>- album: 앨범 관련 수량 표현</t>
+  </si>
+  <si>
+    <t>- zipcode: 우편번호</t>
+  </si>
+  <si>
+    <t>- others: 학문 분야 및 학파</t>
+  </si>
+  <si>
+    <t>- science: 과학 학문 분야</t>
+  </si>
+  <si>
+    <t>- social_science: 사회과학 학문 분야 및 학파</t>
+  </si>
+  <si>
+    <t>- medicine: 의학 관련 학문 분야 및 분과</t>
+  </si>
+  <si>
+    <t>- art: 예술관련 학문 분야 및 학파</t>
+  </si>
+  <si>
+    <t>- philosophy: 철학 관련 학문 분야 및 학파</t>
+  </si>
+  <si>
+    <t>- others: 기타 이론/법칙/원리</t>
+  </si>
+  <si>
+    <t>- science: 과학 관련 이론/법칙/방식/양식/체계/학설</t>
+  </si>
+  <si>
+    <t>- social science: 사회과학 이론/법칙/방법4/원리/사상, 정치사상</t>
+  </si>
+  <si>
+    <t>- art: 예술관련 이론/법칙/방식/양식, 예술사조</t>
+  </si>
+  <si>
+    <t>- philosophy: 철학 이론/사상</t>
+  </si>
+  <si>
+    <t>- medicine: 의학 요법/처방, 의학 진단법</t>
+  </si>
+  <si>
+    <t>- activity: 사회운동 및 선언</t>
+  </si>
+  <si>
+    <t>- war revolution: 전쟁/혁명</t>
+  </si>
+  <si>
+    <t>- sports: 스포츠/레저 관련 행사</t>
+  </si>
+  <si>
+    <t>- festival: 축제 명칭</t>
+  </si>
+  <si>
+    <t>- element: 원소명</t>
+  </si>
+  <si>
+    <t>- metal: 금속물</t>
+  </si>
+  <si>
+    <t>- rock: 암석 명칭</t>
+  </si>
+  <si>
+    <t>- chemical: 모든 화학물질을 나타냄</t>
+  </si>
+  <si>
+    <t>- color: 색</t>
+  </si>
+  <si>
+    <t>- direction: 방향</t>
+  </si>
+  <si>
+    <t>- climate: 기후지역 명칭</t>
+  </si>
+  <si>
+    <t>- shape: 모양/형태 명칭</t>
+  </si>
+  <si>
+    <t>- disease: 증상/증세/질병</t>
+  </si>
+  <si>
+    <t>- drug: 약/약품명</t>
+  </si>
+  <si>
+    <t>- hw: IT 하드웨어 용어</t>
+  </si>
+  <si>
+    <t>- sw: IT 소프트웨어 용어</t>
+  </si>
+  <si>
+    <t>- site: URL 주소</t>
+  </si>
+  <si>
+    <t>- email: 이메일 주소</t>
+  </si>
+  <si>
+    <t>- model: 각종 제품의 세부 모델명, 부품류</t>
+  </si>
+  <si>
+    <t>- service: IT 서비스 용어</t>
+  </si>
+  <si>
+    <t>- project: 프로젝트 명칭</t>
+  </si>
+  <si>
+    <t>- genre: 게임 장르</t>
+  </si>
+  <si>
+    <t>LC
+(지명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS(인명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT(식물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT(수량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF
+(제품, 가공품, 예술품 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV
+(제도/정책, 스포츠 명, 음식, 직업, 수상내역 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~리그'의 경우는 EV_SPORTS로 할당되어야함
+(OGG_SPORTS 주의사항에 표기되어 있습니다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 국립국어원 개체명 분석 말뭉치 버전(1.0) : 문어/구어 300만 어절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 위 말뭉치에서 제공하는 개체명 분류의 Label은 대분류로 분류되어 있습니다.                                                                                                                                                                                                                                                                현재 같은 문어/구어 도메인 데이터를 사용하면서 세분류로 분류한 말뭉치를 신청해놓았기에                                                                                                                                                                                                                                                                추후 그 말뭉치에 대한 사용 승인이 허가되면 아래 표의 Label 열을 수정하겠습니다.
+- 일관성 관련한 오류 분석 데이터는 현재 정리 중에 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>히비스커스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">나 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">난 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이런 걸 챙겨 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>먹었지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 근데 내가 요즘 느껴 정말 영양부족이라는 걸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +1621,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +1705,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +1802,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2070,2506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD50EBA-D7A3-41E2-9E14-FA60CBA00AD3}">
+  <dimension ref="B2:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="20"/>
+      <c r="C114" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="20"/>
+      <c r="C121" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="20"/>
+      <c r="C124" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="20"/>
+      <c r="C128" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" s="20"/>
+      <c r="C129" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" s="20"/>
+      <c r="C135" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" s="20"/>
+      <c r="C145" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" s="20"/>
+      <c r="C146" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" s="20"/>
+      <c r="C157" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" s="20"/>
+      <c r="C159" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" s="20"/>
+      <c r="C160" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" s="20"/>
+      <c r="C165" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" s="20"/>
+      <c r="C166" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B171" s="20"/>
+      <c r="C171" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="20"/>
+      <c r="C172" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178" s="20"/>
+      <c r="C178" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" s="20"/>
+      <c r="C180" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" s="20"/>
+      <c r="C183" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="84" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="63.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="5" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="363" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>